--- a/MTP_DataValidation_InputFile.xlsx
+++ b/MTP_DataValidation_InputFile.xlsx
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="283">
   <si>
     <t>MTP DV3 TEST CASES FOR AUTOMATION</t>
   </si>
   <si>
-    <t>Test Case generation date</t>
-  </si>
-  <si>
     <t>Open Targets Version</t>
   </si>
   <si>
@@ -38,10 +35,16 @@
     <t>PMTL Version</t>
   </si>
   <si>
+    <t>Test Case Generation Date</t>
+  </si>
+  <si>
+    <t>Reproducible Random Seed</t>
+  </si>
+  <si>
     <t>22.04</t>
   </si>
   <si>
-    <t>v10.0</t>
+    <t>v11.1</t>
   </si>
   <si>
     <t>v3.0</t>
@@ -62,178 +65,178 @@
     <t>diseaseCount</t>
   </si>
   <si>
-    <t>/target/ENSG00000040199/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000047932/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000064042/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000087088/associations</t>
+    <t>/target/ENSG00000089234/associations</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000109323/associations</t>
   </si>
   <si>
     <t>/target/ENSG00000118058/associations</t>
   </si>
   <si>
-    <t>/target/ENSG00000120915/associations</t>
-  </si>
-  <si>
     <t>/target/ENSG00000122025/associations</t>
   </si>
   <si>
+    <t>/target/ENSG00000132563/associations</t>
+  </si>
+  <si>
     <t>/target/ENSG00000133703/associations</t>
   </si>
   <si>
+    <t>/target/ENSG00000141194/associations</t>
+  </si>
+  <si>
     <t>/target/ENSG00000141510/associations</t>
   </si>
   <si>
     <t>/target/ENSG00000146648/associations</t>
   </si>
   <si>
+    <t>/target/ENSG00000147509/associations</t>
+  </si>
+  <si>
     <t>/target/ENSG00000157764/associations</t>
   </si>
   <si>
     <t>/target/ENSG00000171094/associations</t>
   </si>
   <si>
+    <t>/target/ENSG00000177414/associations</t>
+  </si>
+  <si>
     <t>/target/ENSG00000177455/associations</t>
   </si>
   <si>
     <t>/target/ENSG00000179295/associations</t>
   </si>
   <si>
-    <t>/target/ENSG00000185896/associations</t>
+    <t>/target/ENSG00000205497/associations</t>
   </si>
   <si>
     <t>/target/ENSG00000213281/associations</t>
   </si>
   <si>
-    <t>/target/ENSG00000221063/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000221821/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000236390/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000284902/associations</t>
-  </si>
-  <si>
-    <t>ENSG00000040199</t>
-  </si>
-  <si>
-    <t>ENSG00000047932</t>
-  </si>
-  <si>
-    <t>ENSG00000064042</t>
-  </si>
-  <si>
-    <t>ENSG00000087088</t>
+    <t>/target/ENSG00000258913/associations</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000275995/associations</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000284959/associations</t>
+  </si>
+  <si>
+    <t>ENSG00000089234</t>
+  </si>
+  <si>
+    <t>ENSG00000109323</t>
   </si>
   <si>
     <t>ENSG00000118058</t>
   </si>
   <si>
-    <t>ENSG00000120915</t>
-  </si>
-  <si>
     <t>ENSG00000122025</t>
   </si>
   <si>
+    <t>ENSG00000132563</t>
+  </si>
+  <si>
     <t>ENSG00000133703</t>
   </si>
   <si>
+    <t>ENSG00000141194</t>
+  </si>
+  <si>
     <t>ENSG00000141510</t>
   </si>
   <si>
     <t>ENSG00000146648</t>
   </si>
   <si>
+    <t>ENSG00000147509</t>
+  </si>
+  <si>
     <t>ENSG00000157764</t>
   </si>
   <si>
     <t>ENSG00000171094</t>
   </si>
   <si>
+    <t>ENSG00000177414</t>
+  </si>
+  <si>
     <t>ENSG00000177455</t>
   </si>
   <si>
     <t>ENSG00000179295</t>
   </si>
   <si>
-    <t>ENSG00000185896</t>
+    <t>ENSG00000205497</t>
   </si>
   <si>
     <t>ENSG00000213281</t>
   </si>
   <si>
-    <t>ENSG00000221063</t>
-  </si>
-  <si>
-    <t>ENSG00000221821</t>
-  </si>
-  <si>
-    <t>ENSG00000236390</t>
-  </si>
-  <si>
-    <t>ENSG00000284902</t>
-  </si>
-  <si>
-    <t>PHLPP2</t>
-  </si>
-  <si>
-    <t>GOPC</t>
-  </si>
-  <si>
-    <t>LIMCH1</t>
-  </si>
-  <si>
-    <t>BAX</t>
+    <t>ENSG00000258913</t>
+  </si>
+  <si>
+    <t>ENSG00000275995</t>
+  </si>
+  <si>
+    <t>ENSG00000284959</t>
+  </si>
+  <si>
+    <t>BRAP</t>
+  </si>
+  <si>
+    <t>MANBA</t>
   </si>
   <si>
     <t>KMT2A</t>
   </si>
   <si>
-    <t>EPHX2</t>
-  </si>
-  <si>
     <t>FLT3</t>
   </si>
   <si>
+    <t>REEP2</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
+    <t>OR4D1</t>
+  </si>
+  <si>
     <t>TP53</t>
   </si>
   <si>
     <t>EGFR</t>
   </si>
   <si>
+    <t>RGS20</t>
+  </si>
+  <si>
     <t>BRAF</t>
   </si>
   <si>
     <t>ALK</t>
   </si>
   <si>
+    <t>UBE2U</t>
+  </si>
+  <si>
     <t>CD19</t>
   </si>
   <si>
     <t>PTPN11</t>
   </si>
   <si>
-    <t>LAMP1</t>
+    <t>OR51A4</t>
   </si>
   <si>
     <t>NRAS</t>
   </si>
   <si>
-    <t>MIR1296</t>
-  </si>
-  <si>
-    <t>C6orf226</t>
+    <t>LINC02691</t>
   </si>
   <si>
     <t>Unspecified Target</t>
@@ -263,13 +266,7 @@
     <t>fusion</t>
   </si>
   <si>
-    <t>/target/ENSG00000104497</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000110934</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000114854</t>
+    <t>/target/ENSG00000109321</t>
   </si>
   <si>
     <t>/target/ENSG00000118058</t>
@@ -281,7 +278,10 @@
     <t>/target/ENSG00000133703</t>
   </si>
   <si>
-    <t>/target/ENSG00000137185</t>
+    <t>/target/ENSG00000135709</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000136531</t>
   </si>
   <si>
     <t>/target/ENSG00000141510</t>
@@ -293,94 +293,97 @@
     <t>/target/ENSG00000157764</t>
   </si>
   <si>
+    <t>/target/ENSG00000169682</t>
+  </si>
+  <si>
     <t>/target/ENSG00000171094</t>
   </si>
   <si>
+    <t>/target/ENSG00000171853</t>
+  </si>
+  <si>
     <t>/target/ENSG00000177455</t>
   </si>
   <si>
     <t>/target/ENSG00000179295</t>
   </si>
   <si>
-    <t>/target/ENSG00000185324</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000211658</t>
+    <t>/target/ENSG00000185608</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000186063</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000199043</t>
   </si>
   <si>
     <t>/target/ENSG00000213281</t>
   </si>
   <si>
-    <t>/target/ENSG00000218476</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000229667</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000265763</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000283938</t>
-  </si>
-  <si>
-    <t>ENSG00000104497</t>
-  </si>
-  <si>
-    <t>ENSG00000110934</t>
-  </si>
-  <si>
-    <t>ENSG00000114854</t>
-  </si>
-  <si>
-    <t>ENSG00000137185</t>
-  </si>
-  <si>
-    <t>ENSG00000185324</t>
-  </si>
-  <si>
-    <t>ENSG00000211658</t>
-  </si>
-  <si>
-    <t>ENSG00000218476</t>
-  </si>
-  <si>
-    <t>ENSG00000229667</t>
-  </si>
-  <si>
-    <t>ENSG00000265763</t>
-  </si>
-  <si>
-    <t>ENSG00000283938</t>
-  </si>
-  <si>
-    <t>SNX16</t>
-  </si>
-  <si>
-    <t>BIN2</t>
-  </si>
-  <si>
-    <t>TNNC1</t>
-  </si>
-  <si>
-    <t>ZSCAN9</t>
-  </si>
-  <si>
-    <t>CDK10</t>
-  </si>
-  <si>
-    <t>IGLV3-27</t>
-  </si>
-  <si>
-    <t>RPL6P18</t>
-  </si>
-  <si>
-    <t>UBE2V1P9</t>
-  </si>
-  <si>
-    <t>ZNF488</t>
-  </si>
-  <si>
-    <t>MIR3917</t>
+    <t>/target/ENSG00000233080</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000258694</t>
+  </si>
+  <si>
+    <t>ENSG00000109321</t>
+  </si>
+  <si>
+    <t>ENSG00000135709</t>
+  </si>
+  <si>
+    <t>ENSG00000136531</t>
+  </si>
+  <si>
+    <t>ENSG00000169682</t>
+  </si>
+  <si>
+    <t>ENSG00000171853</t>
+  </si>
+  <si>
+    <t>ENSG00000185608</t>
+  </si>
+  <si>
+    <t>ENSG00000186063</t>
+  </si>
+  <si>
+    <t>ENSG00000199043</t>
+  </si>
+  <si>
+    <t>ENSG00000233080</t>
+  </si>
+  <si>
+    <t>ENSG00000258694</t>
+  </si>
+  <si>
+    <t>AREG</t>
+  </si>
+  <si>
+    <t>KIAA0513</t>
+  </si>
+  <si>
+    <t>SCN2A</t>
+  </si>
+  <si>
+    <t>SPNS1</t>
+  </si>
+  <si>
+    <t>TRAPPC12</t>
+  </si>
+  <si>
+    <t>MRPL40</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>MIR335</t>
+  </si>
+  <si>
+    <t>LINC01399</t>
+  </si>
+  <si>
+    <t>LINC02319</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -416,31 +419,25 @@
     <t>/disease/EFO_0002939/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0005664/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000678/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1001096/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1001326/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1001485/associations</t>
+    <t>/disease/EFO_0005047/associations</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0007591/associations</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0010227/associations</t>
+  </si>
+  <si>
+    <t>/disease/EFO_1000346/associations</t>
+  </si>
+  <si>
+    <t>/disease/EFO_1000872/associations</t>
   </si>
   <si>
     <t>/disease/EFO_1002008/associations</t>
   </si>
   <si>
-    <t>/disease/HP_0001105/associations</t>
-  </si>
-  <si>
-    <t>/disease/MONDO_0000115/associations</t>
-  </si>
-  <si>
-    <t>/disease/MONDO_0000824/associations</t>
+    <t>/disease/MONDO_0002350/associations</t>
   </si>
   <si>
     <t>/disease/MONDO_0003869/associations</t>
@@ -452,10 +449,16 @@
     <t>/disease/MONDO_0019004/associations</t>
   </si>
   <si>
-    <t>/disease/OBI_1110021/associations</t>
-  </si>
-  <si>
-    <t>/disease/Orphanet_893/associations</t>
+    <t>/disease/MONDO_0030105/associations</t>
+  </si>
+  <si>
+    <t>/disease/Orphanet_2956/associations</t>
+  </si>
+  <si>
+    <t>/disease/Orphanet_584/associations</t>
+  </si>
+  <si>
+    <t>/disease/Orphanet_88939/associations</t>
   </si>
   <si>
     <t>EFO_0000174</t>
@@ -476,31 +479,25 @@
     <t>EFO_0002939</t>
   </si>
   <si>
-    <t>EFO_0005664</t>
-  </si>
-  <si>
-    <t>EFO_1000678</t>
-  </si>
-  <si>
-    <t>EFO_1001096</t>
-  </si>
-  <si>
-    <t>EFO_1001326</t>
-  </si>
-  <si>
-    <t>EFO_1001485</t>
+    <t>EFO_0005047</t>
+  </si>
+  <si>
+    <t>EFO_0007591</t>
+  </si>
+  <si>
+    <t>EFO_0010227</t>
+  </si>
+  <si>
+    <t>EFO_1000346</t>
+  </si>
+  <si>
+    <t>EFO_1000872</t>
   </si>
   <si>
     <t>EFO_1002008</t>
   </si>
   <si>
-    <t>HP_0001105</t>
-  </si>
-  <si>
-    <t>MONDO_0000115</t>
-  </si>
-  <si>
-    <t>MONDO_0000824</t>
+    <t>MONDO_0002350</t>
   </si>
   <si>
     <t>MONDO_0003869</t>
@@ -512,10 +509,16 @@
     <t>MONDO_0019004</t>
   </si>
   <si>
-    <t>OBI_1110021</t>
-  </si>
-  <si>
-    <t>Orphanet_893</t>
+    <t>MONDO_0030105</t>
+  </si>
+  <si>
+    <t>Orphanet_2956</t>
+  </si>
+  <si>
+    <t>Orphanet_584</t>
+  </si>
+  <si>
+    <t>Orphanet_88939</t>
   </si>
   <si>
     <t>Ewing sarcoma</t>
@@ -536,31 +539,25 @@
     <t>medulloblastoma</t>
   </si>
   <si>
-    <t>blood metabolite measurement</t>
-  </si>
-  <si>
-    <t>cholesteatoma of middle ear</t>
-  </si>
-  <si>
-    <t>periapical granuloma</t>
-  </si>
-  <si>
-    <t>Flavivirus Infections</t>
-  </si>
-  <si>
-    <t>acromegaly</t>
+    <t>erythrocyte measurement</t>
+  </si>
+  <si>
+    <t>bone mineral accretion measurement</t>
+  </si>
+  <si>
+    <t>phosphatidylcholine ether measurement</t>
+  </si>
+  <si>
+    <t>Major Salivary Gland Mucoepidermoid Carcinoma</t>
+  </si>
+  <si>
+    <t>commensal Bacteroidaceae infectious disease</t>
   </si>
   <si>
     <t>atypical teratoid rhabdoid tumor</t>
   </si>
   <si>
-    <t>Retinal atrophy</t>
-  </si>
-  <si>
-    <t>Chiari malformation</t>
-  </si>
-  <si>
-    <t>congenital diarrhea</t>
+    <t>familial nephrotic syndrome</t>
   </si>
   <si>
     <t>childhood brain stem glioma</t>
@@ -572,10 +569,16 @@
     <t>kidney Wilms tumor</t>
   </si>
   <si>
-    <t>infect</t>
-  </si>
-  <si>
-    <t>WAGR syndrome</t>
+    <t>galactosemia 4</t>
+  </si>
+  <si>
+    <t>Prata-Liberal-Goncalves syndrome</t>
+  </si>
+  <si>
+    <t>Mucopolysaccharidosis type 7</t>
+  </si>
+  <si>
+    <t>Pseudohypoaldosteronism type 2B</t>
   </si>
   <si>
     <t>opcGeneExp_evidence</t>
@@ -596,247 +599,262 @@
     <t>/evidence/ENSG00000157764/MONDO_0016685</t>
   </si>
   <si>
-    <t>/evidence/ENSG00000117676/EFO_0000350</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000124772/Orphanet_2495</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000233932/EFO_1000318</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000239198/EFO_1000209</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000234081/EFO_1000318</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000235092/EFO_1000209</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000265366/MONDO_0016680</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000236446/Orphanet_2495</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000241870/EFO_0002939</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000233716/EFO_1000177</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000170688/EFO_0000621</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000234899/EFO_0005784</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000266719/EFO_0000693</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000249467/Orphanet_2495</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000199196/EFO_0000222</t>
+    <t>/evidence/ENSG00000006576/EFO_0000621</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000227039/MONDO_0016718</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000086062/EFO_1000028</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000248287/EFO_0000222</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000278292/EFO_0000621</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000233276/EFO_1000512</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000254635/EFO_0009812</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000129744/EFO_1000475</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000104886/EFO_0000693</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000234388/EFO_0000637</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000251538/MONDO_0016685</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000188770/EFO_0000500</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000100347/MONDO_0016693</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000219392/Orphanet_178</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000218416/MONDO_0016718</t>
   </si>
   <si>
     <t>ENSG00000097007</t>
   </si>
   <si>
-    <t>ENSG00000117676</t>
-  </si>
-  <si>
-    <t>ENSG00000124772</t>
-  </si>
-  <si>
-    <t>ENSG00000233932</t>
-  </si>
-  <si>
-    <t>ENSG00000239198</t>
-  </si>
-  <si>
-    <t>ENSG00000234081</t>
-  </si>
-  <si>
-    <t>ENSG00000235092</t>
-  </si>
-  <si>
-    <t>ENSG00000265366</t>
-  </si>
-  <si>
-    <t>ENSG00000236446</t>
-  </si>
-  <si>
-    <t>ENSG00000241870</t>
-  </si>
-  <si>
-    <t>ENSG00000233716</t>
-  </si>
-  <si>
-    <t>ENSG00000170688</t>
-  </si>
-  <si>
-    <t>ENSG00000234899</t>
-  </si>
-  <si>
-    <t>ENSG00000266719</t>
-  </si>
-  <si>
-    <t>ENSG00000249467</t>
-  </si>
-  <si>
-    <t>ENSG00000199196</t>
+    <t>ENSG00000006576</t>
+  </si>
+  <si>
+    <t>ENSG00000227039</t>
+  </si>
+  <si>
+    <t>ENSG00000086062</t>
+  </si>
+  <si>
+    <t>ENSG00000248287</t>
+  </si>
+  <si>
+    <t>ENSG00000278292</t>
+  </si>
+  <si>
+    <t>ENSG00000233276</t>
+  </si>
+  <si>
+    <t>ENSG00000254635</t>
+  </si>
+  <si>
+    <t>ENSG00000129744</t>
+  </si>
+  <si>
+    <t>ENSG00000104886</t>
+  </si>
+  <si>
+    <t>ENSG00000234388</t>
+  </si>
+  <si>
+    <t>ENSG00000251538</t>
+  </si>
+  <si>
+    <t>ENSG00000188770</t>
+  </si>
+  <si>
+    <t>ENSG00000100347</t>
+  </si>
+  <si>
+    <t>ENSG00000219392</t>
+  </si>
+  <si>
+    <t>ENSG00000218416</t>
   </si>
   <si>
     <t>MONDO_0016685</t>
   </si>
   <si>
-    <t>EFO_0000350</t>
-  </si>
-  <si>
-    <t>Orphanet_2495</t>
-  </si>
-  <si>
-    <t>EFO_1000318</t>
-  </si>
-  <si>
-    <t>EFO_1000209</t>
-  </si>
-  <si>
-    <t>EFO_1000177</t>
-  </si>
-  <si>
-    <t>EFO_0005784</t>
+    <t>MONDO_0016718</t>
+  </si>
+  <si>
+    <t>EFO_1000028</t>
+  </si>
+  <si>
+    <t>EFO_1000512</t>
+  </si>
+  <si>
+    <t>EFO_0009812</t>
+  </si>
+  <si>
+    <t>EFO_1000475</t>
   </si>
   <si>
     <t>EFO_0000693</t>
   </si>
   <si>
+    <t>EFO_0000500</t>
+  </si>
+  <si>
+    <t>MONDO_0016693</t>
+  </si>
+  <si>
+    <t>Orphanet_178</t>
+  </si>
+  <si>
     <t>ABL1</t>
   </si>
   <si>
-    <t>RPS6KA1</t>
-  </si>
-  <si>
-    <t>CPNE5</t>
-  </si>
-  <si>
-    <t>CTXN2</t>
-  </si>
-  <si>
-    <t>RPL5P22</t>
-  </si>
-  <si>
-    <t>ELOCP10</t>
-  </si>
-  <si>
-    <t>ID2-AS1</t>
-  </si>
-  <si>
-    <t>GLUD1P2</t>
-  </si>
-  <si>
-    <t>CT47B1</t>
-  </si>
-  <si>
-    <t>MTFR2P1</t>
-  </si>
-  <si>
-    <t>OR5E1P</t>
-  </si>
-  <si>
-    <t>SOX9-AS1</t>
-  </si>
-  <si>
-    <t>MIR4676</t>
-  </si>
-  <si>
-    <t>H2AL1Q</t>
+    <t>PHTF2</t>
+  </si>
+  <si>
+    <t>ITGB2-AS1</t>
+  </si>
+  <si>
+    <t>B4GALT1</t>
+  </si>
+  <si>
+    <t>SCGB1D5P</t>
+  </si>
+  <si>
+    <t>RFPL4AP6</t>
+  </si>
+  <si>
+    <t>GPX1</t>
+  </si>
+  <si>
+    <t>WAC-AS1</t>
+  </si>
+  <si>
+    <t>ART1</t>
+  </si>
+  <si>
+    <t>PLEKHJ1</t>
+  </si>
+  <si>
+    <t>TXNP3</t>
+  </si>
+  <si>
+    <t>LINC02201</t>
+  </si>
+  <si>
+    <t>OPTC</t>
+  </si>
+  <si>
+    <t>SAMM50</t>
+  </si>
+  <si>
+    <t>ZNF602P</t>
+  </si>
+  <si>
+    <t>GPC1-AS1</t>
   </si>
   <si>
     <t>low-grade astrocytoma</t>
   </si>
   <si>
+    <t>choroid plexus carcinoma</t>
+  </si>
+  <si>
+    <t>ependymoma</t>
+  </si>
+  <si>
+    <t>Rhabdoid Tumor of the Kidney</t>
+  </si>
+  <si>
+    <t>secondary malignant neoplasm</t>
+  </si>
+  <si>
+    <t>Pineoblastoma</t>
+  </si>
+  <si>
+    <t>schwannoma</t>
+  </si>
+  <si>
+    <t>ganglioneuroma</t>
+  </si>
+  <si>
+    <t>subependymal giant cell astrocytoma</t>
+  </si>
+  <si>
+    <t>Chordoma</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>evidenceResults</t>
+  </si>
+  <si>
+    <t>/pediatric-cancer-data-navigation</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>EPCAM-DT</t>
+  </si>
+  <si>
+    <t>MIR378A</t>
+  </si>
+  <si>
+    <t>RPL23AP84</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>Adamantinomatous Craniopharyngioma</t>
+  </si>
+  <si>
+    <t>Central Nervous System Lymphoma</t>
+  </si>
+  <si>
+    <t>Meningioma</t>
+  </si>
+  <si>
+    <t>chronic myelogenous leukemia</t>
+  </si>
+  <si>
     <t>clear cell sarcoma of the kidney</t>
   </si>
   <si>
-    <t>Meningioma</t>
-  </si>
-  <si>
-    <t>Langerhans Cell Histiocytosis</t>
-  </si>
-  <si>
-    <t>Craniopharyngioma</t>
-  </si>
-  <si>
-    <t>Choroid Plexus Papilloma</t>
-  </si>
-  <si>
-    <t>embryonal neoplasm</t>
-  </si>
-  <si>
-    <t>schwannoma</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>evidenceResults</t>
-  </si>
-  <si>
-    <t>/pediatric-cancer-data-navigation</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>AP1S2P1</t>
-  </si>
-  <si>
-    <t>GLIDR</t>
-  </si>
-  <si>
-    <t>MIR7704</t>
-  </si>
-  <si>
-    <t>MTND6P3</t>
-  </si>
-  <si>
-    <t>RCOR3</t>
-  </si>
-  <si>
-    <t>RNU2-38P</t>
-  </si>
-  <si>
-    <t>RPL23A</t>
-  </si>
-  <si>
-    <t>SNORD105</t>
-  </si>
-  <si>
-    <t>SUCLA2</t>
-  </si>
-  <si>
-    <t>TAF10</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>ependymoblastoma</t>
-  </si>
-  <si>
-    <t>ependymoma</t>
-  </si>
-  <si>
-    <t>ganglioneuroblastoma</t>
-  </si>
-  <si>
-    <t>malignant rhabdoid tumour</t>
+    <t>diffuse intrinsic pontine glioma</t>
+  </si>
+  <si>
+    <t>dysembryoplastic neuroepithelial tumor</t>
+  </si>
+  <si>
+    <t>inflammatory myofibroblastic tumor</t>
+  </si>
+  <si>
+    <t>pilocytic astrocytoma</t>
+  </si>
+  <si>
+    <t>plexiform neurofibroma</t>
   </si>
   <si>
     <t>categoryValue</t>
@@ -1213,11 +1231,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1229,8 +1251,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>44867.62235010001</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1238,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1246,15 +1268,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="2">
+        <v>44880.46461819715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5555</v>
       </c>
     </row>
   </sheetData>
@@ -1272,203 +1302,203 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>168</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4">
-        <v>52</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>950</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
       </c>
       <c r="E6">
-        <v>679</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>242</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
       </c>
       <c r="E8">
-        <v>696</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9">
-        <v>931</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10">
-        <v>2470</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
       </c>
       <c r="E11">
-        <v>1802</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>1070</v>
@@ -1476,16 +1506,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>789</v>
@@ -1493,138 +1523,138 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
       </c>
       <c r="E14">
-        <v>730</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15">
-        <v>705</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16">
-        <v>292</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
       </c>
       <c r="E17">
-        <v>621</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1642,412 +1672,412 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
       <c r="H4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>41</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H12">
         <v>45</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2058,60 +2088,60 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2122,83 +2152,83 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>43</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2207,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2218,60 +2248,60 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2282,34 +2312,34 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2327,27 +2357,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D2">
         <v>1156</v>
@@ -2355,13 +2385,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D3">
         <v>4280</v>
@@ -2369,13 +2399,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D4">
         <v>6803</v>
@@ -2383,13 +2413,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5">
         <v>4251</v>
@@ -2397,13 +2427,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D6">
         <v>5064</v>
@@ -2411,13 +2441,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D7">
         <v>2638</v>
@@ -2425,83 +2455,83 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D8">
-        <v>499</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D12">
-        <v>373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D13">
         <v>1201</v>
@@ -2509,114 +2539,114 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D15">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D16">
-        <v>1193</v>
+        <v>7011</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D17">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D18">
-        <v>7011</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D19">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D20">
-        <v>8406</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D21">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2634,72 +2664,72 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -2710,25 +2740,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2748,25 +2778,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2786,25 +2816,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2824,60 +2854,60 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>8</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
         <v>121</v>
@@ -2889,36 +2919,36 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
         <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2938,34 +2968,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
         <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
         <v>121</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2976,22 +3006,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>121</v>
@@ -3003,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3014,25 +3044,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3052,25 +3082,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
         <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3090,25 +3120,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3117,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3128,25 +3158,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3155,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3166,25 +3196,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
         <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3193,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3204,25 +3234,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3242,22 +3272,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
         <v>121</v>
@@ -3269,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3280,34 +3310,34 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3318,22 +3348,22 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
         <v>121</v>
@@ -3345,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3356,25 +3386,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3383,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3394,25 +3424,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3445,27 +3475,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -3473,27 +3503,27 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>36</v>
@@ -3501,27 +3531,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>36</v>
@@ -3529,38 +3559,38 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -3571,13 +3601,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>36</v>
@@ -3585,27 +3615,27 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>36</v>
@@ -3613,27 +3643,27 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D14">
         <v>36</v>
@@ -3641,13 +3671,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>36</v>
@@ -3655,27 +3685,27 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D17">
         <v>36</v>
@@ -3683,27 +3713,27 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>114</v>
       </c>
       <c r="D19">
         <v>36</v>
@@ -3711,27 +3741,27 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>36</v>
@@ -3744,7 +3774,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3752,27 +3782,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -3780,27 +3810,27 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
         <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="D3">
-        <v>10000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -3808,13 +3838,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -3822,13 +3852,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
         <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -3836,13 +3866,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
         <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -3850,13 +3880,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
         <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="D8">
         <v>10000</v>
@@ -3864,41 +3894,41 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D9">
-        <v>10000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
         <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
         <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -3906,13 +3936,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
         <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -3920,13 +3950,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
         <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -3934,27 +3964,27 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
         <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="D14">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
         <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -3962,13 +3992,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
         <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D16">
         <v>10000</v>
@@ -3976,15 +4006,57 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
         <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="D17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20">
         <v>10000</v>
       </c>
     </row>
@@ -4003,27 +4075,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -4031,13 +4103,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>483</v>
